--- a/Team-Data/2014-15/3-31-2014-15.xlsx
+++ b/Team-Data/2014-15/3-31-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="n">
         <v>56</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>0.747</v>
+        <v>0.757</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -696,19 +763,19 @@
         <v>26</v>
       </c>
       <c r="N2" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O2" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P2" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S2" t="n">
         <v>31.8</v>
@@ -720,7 +787,7 @@
         <v>25.6</v>
       </c>
       <c r="V2" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W2" t="n">
         <v>8.9</v>
@@ -732,19 +799,19 @@
         <v>4.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="AC2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AD2" t="n">
         <v>5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -777,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP2" t="n">
         <v>24</v>
@@ -804,16 +871,16 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
@@ -935,7 +1002,7 @@
         <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
         <v>12</v>
@@ -983,19 +1050,19 @@
         <v>10</v>
       </c>
       <c r="AW3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
         <v>13</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.452</v>
+        <v>0.444</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
@@ -1048,10 +1115,10 @@
         <v>37.2</v>
       </c>
       <c r="J4" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L4" t="n">
         <v>6.5</v>
@@ -1060,19 +1127,19 @@
         <v>20.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.326</v>
+        <v>0.324</v>
       </c>
       <c r="O4" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R4" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S4" t="n">
         <v>32.2</v>
@@ -1084,7 +1151,7 @@
         <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1093,7 +1160,7 @@
         <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z4" t="n">
         <v>19.6</v>
@@ -1102,25 +1169,25 @@
         <v>20.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF4" t="n">
         <v>18</v>
       </c>
-      <c r="AF4" t="n">
-        <v>17</v>
-      </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1138,7 +1205,7 @@
         <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
@@ -1162,7 +1229,7 @@
         <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1180,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
         <v>22</v>
@@ -1335,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT5" t="n">
         <v>9</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1535,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -1675,16 +1742,16 @@
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
       </c>
       <c r="AM7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1708,7 +1775,7 @@
         <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW7" t="n">
         <v>19</v>
@@ -1723,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB7" t="n">
         <v>6</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
         <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.616</v>
+        <v>0.608</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,49 +1843,49 @@
         <v>39.3</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
         <v>9.1</v>
       </c>
       <c r="M8" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O8" t="n">
         <v>16.4</v>
       </c>
       <c r="P8" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y8" t="n">
         <v>3.9</v>
@@ -1830,13 +1897,13 @@
         <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1881,7 +1948,7 @@
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>23</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-3.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>24</v>
@@ -2048,7 +2115,7 @@
         <v>13</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2063,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
@@ -2078,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -2122,43 +2189,43 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
         <v>45</v>
       </c>
       <c r="G10" t="n">
-        <v>0.392</v>
+        <v>0.384</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J10" t="n">
         <v>86.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
       <c r="L10" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M10" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>0.338</v>
+        <v>0.337</v>
       </c>
       <c r="O10" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P10" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q10" t="n">
         <v>0.706</v>
@@ -2167,10 +2234,10 @@
         <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T10" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U10" t="n">
         <v>21.4</v>
@@ -2185,22 +2252,22 @@
         <v>4.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2230,10 +2297,10 @@
         <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2251,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV10" t="n">
         <v>6</v>
@@ -2260,10 +2327,10 @@
         <v>16</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2371,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.824</v>
+        <v>0.822</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="J11" t="n">
         <v>86.7</v>
@@ -2331,25 +2398,25 @@
         <v>10.7</v>
       </c>
       <c r="M11" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="N11" t="n">
         <v>0.397</v>
       </c>
       <c r="O11" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P11" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R11" t="n">
         <v>10.2</v>
       </c>
       <c r="S11" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="T11" t="n">
         <v>44.6</v>
@@ -2358,31 +2425,31 @@
         <v>27.4</v>
       </c>
       <c r="V11" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W11" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z11" t="n">
         <v>19.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB11" t="n">
         <v>109.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2409,13 +2476,13 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2424,10 +2491,10 @@
         <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -2439,10 +2506,10 @@
         <v>19</v>
       </c>
       <c r="AW11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0.671</v>
+        <v>0.676</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.441</v>
@@ -2516,16 +2583,16 @@
         <v>33.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.724</v>
+        <v>0.722</v>
       </c>
       <c r="R12" t="n">
         <v>11.8</v>
@@ -2546,25 +2613,25 @@
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2576,7 +2643,7 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>20</v>
@@ -2594,16 +2661,16 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR12" t="n">
         <v>6</v>
@@ -2612,7 +2679,7 @@
         <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2621,25 +2688,25 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" t="n">
         <v>32</v>
       </c>
       <c r="F13" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="n">
-        <v>0.432</v>
+        <v>0.438</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2698,7 +2765,7 @@
         <v>21.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O13" t="n">
         <v>16.7</v>
@@ -2707,25 +2774,25 @@
         <v>21.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R13" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T13" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U13" t="n">
         <v>21.4</v>
       </c>
       <c r="V13" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W13" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X13" t="n">
         <v>4.5</v>
@@ -2737,28 +2804,28 @@
         <v>21.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
         <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2770,25 +2837,25 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP13" t="n">
         <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS13" t="n">
         <v>5</v>
@@ -2797,25 +2864,25 @@
         <v>7</v>
       </c>
       <c r="AU13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
         <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="n">
         <v>49</v>
       </c>
       <c r="F14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.653</v>
+        <v>0.662</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2877,19 +2944,19 @@
         <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="P14" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="R14" t="n">
         <v>9.5</v>
@@ -2910,34 +2977,34 @@
         <v>7.8</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y14" t="n">
         <v>3.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA14" t="n">
         <v>21.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>28</v>
@@ -2961,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -2985,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" t="n">
-        <v>0.278</v>
+        <v>0.274</v>
       </c>
       <c r="H15" t="n">
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
         <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T15" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3098,19 +3165,19 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.6</v>
+        <v>-5.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,16 +3189,16 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>25</v>
@@ -3140,13 +3207,13 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3155,7 +3222,7 @@
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT15" t="n">
         <v>11</v>
@@ -3170,16 +3237,16 @@
         <v>21</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3377,7 @@
         <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="n">
         <v>9</v>
@@ -3325,7 +3392,7 @@
         <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP16" t="n">
         <v>15</v>
@@ -3367,7 +3434,7 @@
         <v>18</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" t="n">
         <v>34</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" t="n">
-        <v>0.459</v>
+        <v>0.466</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3414,43 +3481,43 @@
         <v>35</v>
       </c>
       <c r="J17" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L17" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N17" t="n">
         <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R17" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="S17" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="U17" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="V17" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W17" t="n">
         <v>8.1</v>
@@ -3459,7 +3526,7 @@
         <v>4.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z17" t="n">
         <v>19.9</v>
@@ -3468,13 +3535,13 @@
         <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
         <v>20</v>
@@ -3507,13 +3574,13 @@
         <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3528,7 +3595,7 @@
         <v>28</v>
       </c>
       <c r="AV17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW17" t="n">
         <v>10</v>
@@ -3537,7 +3604,7 @@
         <v>22</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3677,7 +3744,7 @@
         <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3722,13 +3789,13 @@
         <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>18</v>
       </c>
       <c r="BB18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3859,7 +3926,7 @@
         <v>13</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3907,7 +3974,7 @@
         <v>8</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -3942,67 +4009,67 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" t="n">
         <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>0.528</v>
+        <v>0.534</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O20" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.758</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U20" t="n">
         <v>22.1</v>
       </c>
       <c r="V20" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,16 +4078,16 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4038,10 +4105,10 @@
         <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4056,10 +4123,10 @@
         <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
@@ -4068,7 +4135,7 @@
         <v>18</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4089,7 +4156,7 @@
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4226,7 +4293,7 @@
         <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -4262,7 +4329,7 @@
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
@@ -4456,7 +4523,7 @@
         <v>16</v>
       </c>
       <c r="BB22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" t="n">
         <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" t="n">
-        <v>0.301</v>
+        <v>0.297</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.35</v>
@@ -4524,22 +4591,22 @@
         <v>14.1</v>
       </c>
       <c r="P23" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
@@ -4551,22 +4618,22 @@
         <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4581,10 +4648,10 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>12</v>
@@ -4611,7 +4678,7 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
@@ -4620,16 +4687,16 @@
         <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -4784,7 +4851,7 @@
         <v>26</v>
       </c>
       <c r="AP24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -4969,7 +5036,7 @@
         <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>13</v>
@@ -4978,7 +5045,7 @@
         <v>14</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
@@ -5121,7 +5188,7 @@
         <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH26" t="n">
         <v>10</v>
@@ -5172,7 +5239,7 @@
         <v>27</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5184,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -5422,13 +5489,13 @@
         <v>0.463</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O28" t="n">
         <v>16.9</v>
@@ -5455,34 +5522,34 @@
         <v>13.9</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA28" t="n">
         <v>19.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>8</v>
       </c>
       <c r="AF28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
         <v>7</v>
@@ -5506,13 +5573,13 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
         <v>5</v>
@@ -5530,10 +5597,10 @@
         <v>4</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
@@ -5548,7 +5615,7 @@
         <v>20</v>
       </c>
       <c r="BB28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5694,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -5718,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="AX29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5727,7 +5794,7 @@
         <v>17</v>
       </c>
       <c r="BA29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
@@ -5849,7 +5916,7 @@
         <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5864,7 +5931,7 @@
         <v>19</v>
       </c>
       <c r="AL30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
@@ -5876,10 +5943,10 @@
         <v>15</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR30" t="n">
         <v>4</v>
@@ -5909,7 +5976,7 @@
         <v>11</v>
       </c>
       <c r="BA30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -6055,13 +6122,13 @@
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>20</v>
@@ -6082,10 +6149,10 @@
         <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-31-2014-15</t>
+          <t>2015-03-31</t>
         </is>
       </c>
     </row>
